--- a/data/osteocytes_exp02.xlsx
+++ b/data/osteocytes_exp02.xlsx
@@ -305,10 +305,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -473,6 +473,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -495,7 +496,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.42"/>
@@ -679,10 +680,10 @@
   <dimension ref="B1:AMJ14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.42"/>
